--- a/doc/04_機能一覧_櫻井家_0607.xlsx
+++ b/doc/04_機能一覧_櫻井家_0607.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F93C05-7583-43DC-9592-4C50BD5664EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E829F16-1AE3-43CC-B888-36F447A6D201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="152">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Webアプリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー登録機能</t>
     <rPh sb="4" eb="8">
       <t>トウロクキノウ</t>
@@ -834,13 +830,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン必須</t>
-    <rPh sb="4" eb="6">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記事に対してコメントを投稿する。</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
@@ -913,13 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティへの参加</t>
-    <rPh sb="8" eb="10">
-      <t>サンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力されたキーワードに合致するコミュニティを表示する。</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -928,13 +910,6 @@
       <t>ガッチ</t>
     </rPh>
     <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果またはおすすめコミュニティの表示から各コミュニティのページに移動することが可能</t>
-    <rPh sb="18" eb="20">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1166,15 +1141,355 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C108</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R101</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>R002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面</t>
+    <rPh sb="4" eb="8">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿画面</t>
+    <rPh sb="0" eb="6">
+      <t>キジトウコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿確認画面</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿通知画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ツウチガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事編集画面</t>
+    <rPh sb="0" eb="6">
+      <t>キジヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集通知画面</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンシュウツウチガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事検索結果画面</t>
+    <rPh sb="0" eb="8">
+      <t>キジケンサクケッカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事閲覧画面</t>
+    <rPh sb="0" eb="6">
+      <t>キジエツランガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ検索結果画面</t>
+    <rPh sb="6" eb="12">
+      <t>ケンサクケッカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ新規作成画面</t>
+    <rPh sb="6" eb="12">
+      <t>シンキサクセイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ新規作成確認画面</t>
+    <rPh sb="6" eb="14">
+      <t>シンキサクセイカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>キジトウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ設定（ログイン必須）</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像・動画挿入（ログイン必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ドウガソウニュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字数（ログイン必須）</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウリョクモジスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容確認（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>ナイヨウカクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿完了（ログイン必須）</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事編集（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>キジヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ編集（ログイン必須）</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像・動画編集（ログイン必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認（ログイン必須）</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集完了（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事削除（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>キジサクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事一覧（ログイン必須）</t>
+    <rPh sb="0" eb="4">
+      <t>キジイチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ記事</t>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事検索</t>
+    <rPh sb="0" eb="4">
+      <t>キジケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事表示</t>
+    <rPh sb="0" eb="4">
+      <t>キジヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント（ログイン必須）</t>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめコミュニティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事の検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティの検索結果</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット（ログイン必須）</t>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット参加者一覧（ログイン必須）</t>
+    <rPh sb="4" eb="9">
+      <t>サンカシャイチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ新規作成（ログイン必須）</t>
+    <rPh sb="6" eb="10">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒッス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1275,7 +1590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,20 +1615,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1653,19 +1962,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
@@ -1676,44 +1985,44 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>45084</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1751,23 +2060,23 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1775,23 +2084,23 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1799,25 +2108,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1825,25 +2134,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -1851,25 +2160,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1877,25 +2186,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="39" x14ac:dyDescent="0.2">
@@ -1903,25 +2212,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1929,25 +2238,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1955,25 +2264,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1981,25 +2290,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -2007,25 +2316,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2033,25 +2342,25 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
@@ -2059,25 +2368,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2085,25 +2394,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -2111,25 +2420,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2137,25 +2446,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="39" x14ac:dyDescent="0.2">
@@ -2163,23 +2472,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2187,23 +2498,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="39" x14ac:dyDescent="0.2">
@@ -2211,23 +2524,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2235,23 +2550,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2259,23 +2576,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2283,25 +2602,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -2309,25 +2628,25 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2335,23 +2654,25 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="52" x14ac:dyDescent="0.2">
@@ -2359,23 +2680,25 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2383,23 +2706,25 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2407,49 +2732,51 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -2457,167 +2784,78 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="52" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="52" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="39" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2636,7 +2874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
